--- a/settings/data/Skill.xlsx
+++ b/settings/data/Skill.xlsx
@@ -40,7 +40,7 @@
     <t>int</t>
   </si>
   <si>
-    <t>array_string</t>
+    <t>array_str</t>
   </si>
   <si>
     <t>float</t>
@@ -62,6 +62,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">组内类型
 </t>
     </r>
@@ -155,7 +162,7 @@
     <t>none</t>
   </si>
   <si>
-    <t>[rou_basemagic_base]</t>
+    <t>rou_basemagic_base</t>
   </si>
   <si>
     <t>初始体术</t>
@@ -164,7 +171,7 @@
     <t>ski_basephysics</t>
   </si>
   <si>
-    <t>[rou_basephysics_base]</t>
+    <t>rou_basephysics_base</t>
   </si>
   <si>
     <t>博丽灵梦</t>
@@ -176,7 +183,7 @@
     <t>upg_reimu</t>
   </si>
   <si>
-    <t>[rou_reimu_base]</t>
+    <t>rou_reimu_base</t>
   </si>
   <si>
     <t>东风谷早苗</t>
@@ -188,7 +195,7 @@
     <t>upg_sanae</t>
   </si>
   <si>
-    <t>[rou_sanae_base]</t>
+    <t>rou_sanae_base</t>
   </si>
   <si>
     <t>露米娅</t>
@@ -200,7 +207,7 @@
     <t>upg_rumia</t>
   </si>
   <si>
-    <t>[rou_rumia_base]</t>
+    <t>rou_rumia_base</t>
   </si>
   <si>
     <t>莉格露</t>
@@ -212,7 +219,7 @@
     <t>upg_wriggle</t>
   </si>
   <si>
-    <t>[rou_wriggle_base]</t>
+    <t>rou_wriggle_base</t>
   </si>
   <si>
     <t>爱丽丝</t>
@@ -224,7 +231,7 @@
     <t>upg_alice</t>
   </si>
   <si>
-    <t>[rou_alice_base]</t>
+    <t>rou_alice_base</t>
   </si>
   <si>
     <t>赤蛮奇</t>
@@ -236,7 +243,7 @@
     <t>upg_sekibanki</t>
   </si>
   <si>
-    <t>[rou_sekibanki_base]</t>
+    <t>rou_sekibanki_base</t>
   </si>
   <si>
     <t>玉造魅须丸</t>
@@ -248,7 +255,7 @@
     <t>upg_misumaru</t>
   </si>
   <si>
-    <t>[rou_misumaru_base]</t>
+    <t>rou_misumaru_base</t>
   </si>
   <si>
     <t>十六夜咲夜</t>
@@ -260,7 +267,7 @@
     <t>upg_sakuya</t>
   </si>
   <si>
-    <t>[rou_sakuya_base]</t>
+    <t>rou_sakuya_base</t>
   </si>
 </sst>
 </file>
@@ -1252,7 +1259,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A4" sqref="$A4:$XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1349,8 +1356,8 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="str">
-        <f>""""&amp;C4&amp;"_"&amp;D4&amp;""""</f>
-        <v>"ski_basemagic_base"</v>
+        <f>C4&amp;"_"&amp;D4</f>
+        <v>ski_basemagic_base</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>19</v>
@@ -1379,8 +1386,8 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="str">
-        <f>""""&amp;C5&amp;"_"&amp;D5&amp;""""</f>
-        <v>"ski_basephysics_base"</v>
+        <f t="shared" ref="A5:A13" si="0">C5&amp;"_"&amp;D5</f>
+        <v>ski_basephysics_base</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>24</v>
@@ -1409,8 +1416,8 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="str">
-        <f>""""&amp;C6&amp;"_"&amp;D6&amp;""""</f>
-        <v>"ski_reimu_base"</v>
+        <f t="shared" si="0"/>
+        <v>ski_reimu_base</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>27</v>
@@ -1443,8 +1450,8 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="str">
-        <f>""""&amp;C7&amp;"_"&amp;D7&amp;""""</f>
-        <v>"ski_sanae_base"</v>
+        <f t="shared" si="0"/>
+        <v>ski_sanae_base</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>31</v>
@@ -1473,8 +1480,8 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="str">
-        <f t="shared" ref="A7:A13" si="0">""""&amp;C8&amp;"_"&amp;D8&amp;""""</f>
-        <v>"ski_rumia_base"</v>
+        <f t="shared" si="0"/>
+        <v>ski_rumia_base</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>35</v>
@@ -1504,7 +1511,7 @@
     <row r="9" spans="1:9">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v>"ski_wriggle_base"</v>
+        <v>ski_wriggle_base</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>39</v>
@@ -1534,7 +1541,7 @@
     <row r="10" spans="1:9">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v>"ski_alice_base"</v>
+        <v>ski_alice_base</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>43</v>
@@ -1564,7 +1571,7 @@
     <row r="11" spans="1:9">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
-        <v>"ski_sekibanki_base"</v>
+        <v>ski_sekibanki_base</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>47</v>
@@ -1594,7 +1601,7 @@
     <row r="12" spans="1:9">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
-        <v>"ski_misumaru_base"</v>
+        <v>ski_misumaru_base</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>51</v>
@@ -1624,7 +1631,7 @@
     <row r="13" spans="1:9">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
-        <v>"ski_sakuya_base"</v>
+        <v>ski_sakuya_base</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>55</v>

--- a/settings/data/Skill.xlsx
+++ b/settings/data/Skill.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B98150B-49E7-47D2-9FED-3890C6D8AE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FCB612-BE72-4074-92A6-A04922F8C975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11496" yWindow="1392" windowWidth="28656" windowHeight="14832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="skill" sheetId="1" r:id="rId1"/>
+    <sheet name="Skill" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
   <si>
     <t>string</t>
   </si>
@@ -41,7 +41,7 @@
     <t>注释</t>
   </si>
   <si>
-    <t>int</t>
+    <t>array_str</t>
   </si>
   <si>
     <t>float</t>
@@ -63,6 +63,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">组内类型
 </t>
     </r>
@@ -134,6 +142,12 @@
     <t>冷却缩减效率</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>cd</t>
   </si>
   <si>
@@ -152,12 +166,18 @@
     <t>none</t>
   </si>
   <si>
+    <t>rou_basemagic_base</t>
+  </si>
+  <si>
     <t>初始体术</t>
   </si>
   <si>
     <t>ski_basephysics</t>
   </si>
   <si>
+    <t>rou_basephysics_base</t>
+  </si>
+  <si>
     <t>博丽灵梦</t>
   </si>
   <si>
@@ -167,6 +187,9 @@
     <t>upg_reimu</t>
   </si>
   <si>
+    <t>rou_reimu_base</t>
+  </si>
+  <si>
     <t>东风谷早苗</t>
   </si>
   <si>
@@ -176,6 +199,9 @@
     <t>upg_sanae</t>
   </si>
   <si>
+    <t>rou_sanae_base</t>
+  </si>
+  <si>
     <t>露米娅</t>
   </si>
   <si>
@@ -194,6 +220,9 @@
     <t>upg_wriggle</t>
   </si>
   <si>
+    <t>rou_wriggle_base</t>
+  </si>
+  <si>
     <t>爱丽丝</t>
   </si>
   <si>
@@ -203,6 +232,9 @@
     <t>upg_alice</t>
   </si>
   <si>
+    <t>rou_alice_base</t>
+  </si>
+  <si>
     <t>赤蛮奇</t>
   </si>
   <si>
@@ -212,6 +244,9 @@
     <t>upg_sekibanki</t>
   </si>
   <si>
+    <t>rou_sekibanki_base</t>
+  </si>
+  <si>
     <t>玉造魅须丸</t>
   </si>
   <si>
@@ -219,6 +254,9 @@
   </si>
   <si>
     <t>upg_misumaru</t>
+  </si>
+  <si>
+    <t>rou_misumaru_base</t>
   </si>
   <si>
     <t>十六夜咲夜</t>
@@ -234,7 +272,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>*type</t>
+    <t>upgrade_group</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -242,55 +284,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>array_str</t>
+    <t>rou_rumia_base|rou_rumia_attachment1_base</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>skill_name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>upgrade_group</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rou_basemagic</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rou_basephysics</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rou_reimu</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rou_sanae</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rou_wriggle</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rou_alice</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rou_sekibanki</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rou_misumaru</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rou_sakuya</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rou_rumia|rou_rumia_attachment1</t>
+    <t>rou_sakuya_base|rou_sakuya_attachment1_base</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -298,9 +296,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -415,8 +410,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -688,20 +683,20 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" customWidth="1"/>
     <col min="6" max="6" width="23.6640625" customWidth="1"/>
     <col min="7" max="7" width="25.21875" customWidth="1"/>
     <col min="8" max="8" width="23.21875" customWidth="1"/>
-    <col min="9" max="9" width="31.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -720,11 +715,11 @@
       <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -763,55 +758,56 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>49</v>
+      <c r="A3" t="s">
+        <v>13</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>46</v>
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
+      <c r="A4" t="str">
+        <f>C4&amp;"_"&amp;D4</f>
+        <v>ski_basemagic_base</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>51</v>
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -821,26 +817,27 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" t="str">
+        <f t="shared" ref="A5:A13" si="0">C5&amp;"_"&amp;D5</f>
+        <v>ski_basephysics_base</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>52</v>
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -850,26 +847,27 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>ski_reimu_base</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -883,200 +881,207 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>ski_sanae_base</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>ski_rumia_base</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>ski_wriggle_base</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>ski_alice_base</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>ski_sekibanki_base</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>ski_misumaru_base</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>ski_sakuya_base</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
         <v>54</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="F13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H13">
         <v>1</v>

--- a/settings/data/Skill.xlsx
+++ b/settings/data/Skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FCB612-BE72-4074-92A6-A04922F8C975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA46E79-F476-4BAB-A221-C2D334EE3939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11496" yWindow="1392" windowWidth="28656" windowHeight="14832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12540" yWindow="6480" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -683,23 +683,23 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" customWidth="1"/>
-    <col min="7" max="7" width="25.21875" customWidth="1"/>
-    <col min="8" max="8" width="23.21875" customWidth="1"/>
-    <col min="9" max="9" width="31.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="6" max="6" width="23.625" customWidth="1"/>
+    <col min="7" max="7" width="25.25" customWidth="1"/>
+    <col min="8" max="8" width="23.25" customWidth="1"/>
+    <col min="9" max="9" width="31.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -728,7 +728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="128.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="128.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -757,7 +757,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -786,10 +786,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="str">
-        <f>C4&amp;"_"&amp;D4</f>
-        <v>ski_basemagic_base</v>
+        <f>C4</f>
+        <v>ski_basemagic</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -816,10 +816,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="str">
-        <f t="shared" ref="A5:A13" si="0">C5&amp;"_"&amp;D5</f>
-        <v>ski_basephysics_base</v>
+        <f>C5</f>
+        <v>ski_basephysics</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -846,10 +846,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>ski_reimu_base</v>
+        <f>C6</f>
+        <v>ski_reimu</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -880,10 +880,10 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>ski_sanae_base</v>
+        <f>C7</f>
+        <v>ski_sanae</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -910,10 +910,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" t="str">
-        <f t="shared" si="0"/>
-        <v>ski_rumia_base</v>
+        <f>C8</f>
+        <v>ski_rumia</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
@@ -940,10 +940,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="str">
-        <f t="shared" si="0"/>
-        <v>ski_wriggle_base</v>
+        <f>C9</f>
+        <v>ski_wriggle</v>
       </c>
       <c r="B9" t="s">
         <v>36</v>
@@ -970,10 +970,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="str">
-        <f t="shared" si="0"/>
-        <v>ski_alice_base</v>
+        <f>C10</f>
+        <v>ski_alice</v>
       </c>
       <c r="B10" t="s">
         <v>40</v>
@@ -1000,10 +1000,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="str">
-        <f t="shared" si="0"/>
-        <v>ski_sekibanki_base</v>
+        <f>C11</f>
+        <v>ski_sekibanki</v>
       </c>
       <c r="B11" t="s">
         <v>44</v>
@@ -1030,10 +1030,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="str">
-        <f t="shared" si="0"/>
-        <v>ski_misumaru_base</v>
+        <f>C12</f>
+        <v>ski_misumaru</v>
       </c>
       <c r="B12" t="s">
         <v>48</v>
@@ -1060,10 +1060,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="str">
-        <f t="shared" si="0"/>
-        <v>ski_sakuya_base</v>
+        <f>C13</f>
+        <v>ski_sakuya</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>

--- a/settings/data/Skill.xlsx
+++ b/settings/data/Skill.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA46E79-F476-4BAB-A221-C2D334EE3939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4540C866-C559-438E-A9C1-0843FAB8792F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12540" yWindow="6480" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8325" yWindow="7590" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,24 +37,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>array_str</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>技能ID</t>
+  </si>
+  <si>
+    <t>中文名</t>
+  </si>
+  <si>
     <t>注释</t>
-  </si>
-  <si>
-    <t>array_str</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>技能ID</t>
-  </si>
-  <si>
-    <t>中文名</t>
   </si>
   <si>
     <t>组ID</t>
@@ -145,9 +149,18 @@
     <t>id</t>
   </si>
   <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>upgrade_group</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
+    <t>routines</t>
+  </si>
+  <si>
     <t>cd</t>
   </si>
   <si>
@@ -157,6 +170,9 @@
     <t>初始弹幕</t>
   </si>
   <si>
+    <t>向前方发射子弹</t>
+  </si>
+  <si>
     <t>ski_basemagic</t>
   </si>
   <si>
@@ -166,18 +182,15 @@
     <t>none</t>
   </si>
   <si>
-    <t>rou_basemagic_base</t>
-  </si>
-  <si>
     <t>初始体术</t>
   </si>
   <si>
+    <t>使用剑气攻击周围一定区域内的敌人</t>
+  </si>
+  <si>
     <t>ski_basephysics</t>
   </si>
   <si>
-    <t>rou_basephysics_base</t>
-  </si>
-  <si>
     <t>博丽灵梦</t>
   </si>
   <si>
@@ -187,9 +200,6 @@
     <t>upg_reimu</t>
   </si>
   <si>
-    <t>rou_reimu_base</t>
-  </si>
-  <si>
     <t>东风谷早苗</t>
   </si>
   <si>
@@ -199,9 +209,6 @@
     <t>upg_sanae</t>
   </si>
   <si>
-    <t>rou_sanae_base</t>
-  </si>
-  <si>
     <t>露米娅</t>
   </si>
   <si>
@@ -220,9 +227,6 @@
     <t>upg_wriggle</t>
   </si>
   <si>
-    <t>rou_wriggle_base</t>
-  </si>
-  <si>
     <t>爱丽丝</t>
   </si>
   <si>
@@ -232,9 +236,6 @@
     <t>upg_alice</t>
   </si>
   <si>
-    <t>rou_alice_base</t>
-  </si>
-  <si>
     <t>赤蛮奇</t>
   </si>
   <si>
@@ -244,9 +245,6 @@
     <t>upg_sekibanki</t>
   </si>
   <si>
-    <t>rou_sekibanki_base</t>
-  </si>
-  <si>
     <t>玉造魅须丸</t>
   </si>
   <si>
@@ -256,9 +254,6 @@
     <t>upg_misumaru</t>
   </si>
   <si>
-    <t>rou_misumaru_base</t>
-  </si>
-  <si>
     <t>十六夜咲夜</t>
   </si>
   <si>
@@ -266,30 +261,6 @@
   </si>
   <si>
     <t>upg_sakuya</t>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>upgrade_group</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>routines</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rou_rumia_base|rou_rumia_attachment1_base</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rou_sakuya_base|rou_sakuya_attachment1_base</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -306,6 +277,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -335,14 +314,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -353,7 +324,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79995117038483843"/>
+        <fgColor theme="7" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,26 +363,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,6 +399,124 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Routine"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>rou_basemagic</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>rou_basephysics</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>rou_reimu</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>rou_sanae</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>rou_rumia</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>rou_wriggle</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>rou_alice</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>rou_sekibanki</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>rou_misumaru</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>rou_sakuya</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="TID"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="24">
+          <cell r="E24" t="str">
+            <v>发射追踪敌人的符纸</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="E25" t="str">
+            <v>发射引发风之力的弹幕，如果运气好的话会引发更大的风</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="E26" t="str">
+            <v>发射黑暗球，击中敌人后会生成减速区域</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="E27" t="str">
+            <v>发射萤火虫，追踪自机周围血量最高的敌人并持续造成伤害</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="E28" t="str">
+            <v>召唤冲向敌人并对周围敌人造成伤害的人偶</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="E29" t="str">
+            <v>发射围绕在自机附近的赤蛮奇的头</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="E30" t="str">
+            <v>发射会在敌人之间反弹的阴阳玉</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31" t="str">
+            <v>发射先在自机周围旋转、随后向自机前方飞出的飞刀</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -680,418 +769,476 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="15.25" customWidth="1"/>
-    <col min="6" max="6" width="23.625" customWidth="1"/>
-    <col min="7" max="7" width="25.25" customWidth="1"/>
-    <col min="8" max="8" width="23.25" customWidth="1"/>
-    <col min="9" max="9" width="31.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="53.375" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="7" max="7" width="23.625" customWidth="1"/>
+    <col min="8" max="8" width="25.25" customWidth="1"/>
+    <col min="9" max="9" width="23.25" customWidth="1"/>
+    <col min="10" max="10" width="31.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="128.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>3</v>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="128.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="G3" t="s">
         <v>16</v>
       </c>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="str">
-        <f>C4</f>
+        <f t="shared" ref="A4:A13" si="0">D4</f>
         <v>ski_basemagic</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
         <v>21</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="str">
+        <f>[1]Routine!$A$4</f>
+        <v>rou_basemagic</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="str">
-        <f>C5</f>
+        <f t="shared" si="0"/>
         <v>ski_basephysics</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="G5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="str">
+        <f>[1]Routine!$A$5</f>
+        <v>rou_basephysics</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="str">
-        <f>C6</f>
+        <f t="shared" si="0"/>
         <v>ski_reimu</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
         <v>28</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" t="str">
+      <c r="C6" t="str">
+        <f>[2]TID!$E$24</f>
+        <v>发射追踪敌人的符纸</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="str">
+        <f>[1]Routine!$A$6</f>
+        <v>rou_reimu</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="str">
-        <f>C7</f>
+        <f t="shared" si="0"/>
         <v>ski_sanae</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="C7" t="str">
+        <f>[2]TID!$E$25</f>
+        <v>发射引发风之力的弹幕，如果运气好的话会引发更大的风</v>
+      </c>
+      <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="E7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="str">
+        <f>[1]Routine!$A$7</f>
+        <v>rou_sanae</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="str">
-        <f>C8</f>
+        <f t="shared" si="0"/>
         <v>ski_rumia</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="C8" t="str">
+        <f>[2]TID!$E$26</f>
+        <v>发射黑暗球，击中敌人后会生成减速区域</v>
+      </c>
+      <c r="D8" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="E8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="6" t="str">
+        <f>[1]Routine!$A$8</f>
+        <v>rou_rumia</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="str">
-        <f>C9</f>
+        <f t="shared" si="0"/>
         <v>ski_wriggle</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="C9" t="str">
+        <f>[2]TID!$E$27</f>
+        <v>发射萤火虫，追踪自机周围血量最高的敌人并持续造成伤害</v>
+      </c>
+      <c r="D9" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="E9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
         <v>39</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="G9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="str">
+        <f>[1]Routine!$A$10</f>
+        <v>rou_wriggle</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="str">
-        <f>C10</f>
+        <f t="shared" si="0"/>
         <v>ski_alice</v>
       </c>
       <c r="B10" t="s">
         <v>40</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="str">
+        <f>[2]TID!$E$28</f>
+        <v>召唤冲向敌人并对周围敌人造成伤害的人偶</v>
+      </c>
+      <c r="D10" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="E10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="G10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="str">
+        <f>[1]Routine!$A$11</f>
+        <v>rou_alice</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>ski_sekibanki</v>
+      </c>
+      <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="C11" t="str">
+        <f>[2]TID!$E$29</f>
+        <v>发射围绕在自机附近的赤蛮奇的头</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" t="str">
+        <f>[1]Routine!$A$18</f>
+        <v>rou_sekibanki</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" t="str">
-        <f>C11</f>
-        <v>ski_sekibanki</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>ski_misumaru</v>
+      </c>
+      <c r="B12" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="C12" t="str">
+        <f>[2]TID!$E$30</f>
+        <v>发射会在敌人之间反弹的阴阳玉</v>
+      </c>
+      <c r="D12" t="s">
         <v>47</v>
       </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1">
+      <c r="E12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" t="str">
+        <f>[1]Routine!$A$19</f>
+        <v>rou_misumaru</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" t="str">
-        <f>C12</f>
-        <v>ski_misumaru</v>
-      </c>
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>ski_sakuya</v>
+      </c>
+      <c r="B13" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="C13" t="str">
+        <f>[2]TID!$E$31</f>
+        <v>发射先在自机周围旋转、随后向自机前方飞出的飞刀</v>
+      </c>
+      <c r="D13" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="E13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
         <v>51</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" t="str">
-        <f>C13</f>
-        <v>ski_sakuya</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1">
+      <c r="G13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="2" t="str">
+        <f>[1]Routine!$A$21</f>
+        <v>rou_sakuya</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/settings/data/Skill.xlsx
+++ b/settings/data/Skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4540C866-C559-438E-A9C1-0843FAB8792F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEDC625-11C1-48AB-9C53-4CD6AA526EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8325" yWindow="7590" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -772,24 +772,24 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="53.375" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="15.25" customWidth="1"/>
-    <col min="7" max="7" width="23.625" customWidth="1"/>
-    <col min="8" max="8" width="25.25" customWidth="1"/>
-    <col min="9" max="9" width="23.25" customWidth="1"/>
-    <col min="10" max="10" width="31.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="53.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" customWidth="1"/>
+    <col min="8" max="8" width="25.21875" customWidth="1"/>
+    <col min="9" max="9" width="23.21875" customWidth="1"/>
+    <col min="10" max="10" width="31.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -821,7 +821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="128.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="128.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -853,7 +853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -885,7 +885,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A13" si="0">D4</f>
         <v>ski_basemagic</v>
@@ -919,7 +919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>ski_basephysics</v>
@@ -953,7 +953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>ski_reimu</v>
@@ -992,7 +992,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>ski_sanae</v>
@@ -1027,7 +1027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>ski_rumia</v>
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>ski_wriggle</v>
@@ -1097,7 +1097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>ski_alice</v>
@@ -1132,7 +1132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>ski_sekibanki</v>
@@ -1167,7 +1167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>ski_misumaru</v>
@@ -1202,7 +1202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>ski_sakuya</v>

--- a/settings/data/Skill.xlsx
+++ b/settings/data/Skill.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEDC625-11C1-48AB-9C53-4CD6AA526EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -71,7 +65,6 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -83,7 +76,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -98,7 +90,6 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -110,7 +101,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -123,7 +113,6 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -135,7 +124,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -266,8 +254,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,7 +273,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -287,7 +280,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -295,27 +287,162 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,12 +451,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79992065187536243"/>
+        <fgColor theme="7" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -350,9 +663,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -385,24 +940,68 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Routine"/>
@@ -466,7 +1065,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TID"/>
@@ -763,33 +1362,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="53.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" customWidth="1"/>
-    <col min="8" max="8" width="25.21875" customWidth="1"/>
-    <col min="9" max="9" width="23.21875" customWidth="1"/>
-    <col min="10" max="10" width="31.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7818181818182" customWidth="1"/>
+    <col min="3" max="3" width="53.3363636363636" customWidth="1"/>
+    <col min="4" max="4" width="17.3363636363636" customWidth="1"/>
+    <col min="5" max="5" width="12.6636363636364" customWidth="1"/>
+    <col min="6" max="6" width="15.2181818181818" customWidth="1"/>
+    <col min="7" max="7" width="23.6636363636364" customWidth="1"/>
+    <col min="8" max="8" width="25.2181818181818" customWidth="1"/>
+    <col min="9" max="9" width="23.2181818181818" customWidth="1"/>
+    <col min="10" max="10" width="31.2181818181818" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -821,7 +1420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="128.4" x14ac:dyDescent="0.25">
+    <row r="2" ht="138" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -853,7 +1452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -885,7 +1484,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A13" si="0">D4</f>
         <v>ski_basemagic</v>
@@ -919,7 +1518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>ski_basephysics</v>
@@ -953,7 +1552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>ski_reimu</v>
@@ -992,7 +1591,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>ski_sanae</v>
@@ -1027,7 +1626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" customHeight="1" spans="1:10">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>ski_rumia</v>
@@ -1062,7 +1661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>ski_wriggle</v>
@@ -1097,7 +1696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>ski_alice</v>
@@ -1126,13 +1725,13 @@
         <v>rou_alice</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>ski_sekibanki</v>
@@ -1167,7 +1766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>ski_misumaru</v>
@@ -1202,7 +1801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>ski_sakuya</v>
@@ -1238,8 +1837,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/settings/data/Skill.xlsx
+++ b/settings/data/Skill.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73248487-ABE4-4473-9BB2-B7F2B5E28649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -254,14 +260,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,158 +291,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,198 +314,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -663,251 +340,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -940,68 +375,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Routine"/>
@@ -1065,7 +456,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TID"/>
@@ -1362,33 +753,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="11.7818181818182" customWidth="1"/>
-    <col min="3" max="3" width="53.3363636363636" customWidth="1"/>
-    <col min="4" max="4" width="17.3363636363636" customWidth="1"/>
-    <col min="5" max="5" width="12.6636363636364" customWidth="1"/>
-    <col min="6" max="6" width="15.2181818181818" customWidth="1"/>
-    <col min="7" max="7" width="23.6636363636364" customWidth="1"/>
-    <col min="8" max="8" width="25.2181818181818" customWidth="1"/>
-    <col min="9" max="9" width="23.2181818181818" customWidth="1"/>
-    <col min="10" max="10" width="31.2181818181818" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="53.375" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="7" max="7" width="23.625" customWidth="1"/>
+    <col min="8" max="8" width="25.25" customWidth="1"/>
+    <col min="9" max="9" width="23.25" customWidth="1"/>
+    <col min="10" max="10" width="31.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1420,7 +811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="138" spans="1:10">
+    <row r="2" spans="1:11" ht="128.25" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1452,7 +843,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1484,7 +875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A13" si="0">D4</f>
         <v>ski_basemagic</v>
@@ -1518,7 +909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>ski_basephysics</v>
@@ -1552,7 +943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>ski_reimu</v>
@@ -1591,7 +982,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>ski_sanae</v>
@@ -1626,7 +1017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:10">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>ski_rumia</v>
@@ -1661,7 +1052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>ski_wriggle</v>
@@ -1696,7 +1087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>ski_alice</v>
@@ -1731,7 +1122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>ski_sekibanki</v>
@@ -1766,7 +1157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>ski_misumaru</v>
@@ -1801,7 +1192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>ski_sakuya</v>
@@ -1837,8 +1228,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/settings/data/Skill.xlsx
+++ b/settings/data/Skill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectFiles\LOO\3.16\sclone\settings\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73248487-ABE4-4473-9BB2-B7F2B5E28649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAF9E4C-79CB-4241-A594-6D3AB06EE8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -71,6 +69,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -82,6 +81,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -96,6 +96,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -107,6 +108,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -119,6 +121,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -130,6 +133,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -273,6 +277,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -280,6 +285,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -287,6 +293,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -294,6 +301,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -762,24 +770,24 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="53.375" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="15.25" customWidth="1"/>
-    <col min="7" max="7" width="23.625" customWidth="1"/>
-    <col min="8" max="8" width="25.25" customWidth="1"/>
-    <col min="9" max="9" width="23.25" customWidth="1"/>
-    <col min="10" max="10" width="31.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="53.36328125" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" customWidth="1"/>
+    <col min="7" max="7" width="23.6328125" customWidth="1"/>
+    <col min="8" max="8" width="25.26953125" customWidth="1"/>
+    <col min="9" max="9" width="23.26953125" customWidth="1"/>
+    <col min="10" max="10" width="31.26953125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -811,7 +819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="128.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="138" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -843,7 +851,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -875,7 +883,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A13" si="0">D4</f>
         <v>ski_basemagic</v>
@@ -909,7 +917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>ski_basephysics</v>
@@ -943,7 +951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>ski_reimu</v>
@@ -982,7 +990,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>ski_sanae</v>
@@ -1017,7 +1025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>ski_rumia</v>
@@ -1046,13 +1054,13 @@
         <v>rou_rumia</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>ski_wriggle</v>
@@ -1087,7 +1095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>ski_alice</v>
@@ -1122,7 +1130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>ski_sekibanki</v>
@@ -1151,13 +1159,13 @@
         <v>rou_sekibanki</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>ski_misumaru</v>
@@ -1192,7 +1200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>ski_sakuya</v>

--- a/settings/data/Skill.xlsx
+++ b/settings/data/Skill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectFiles\LOO\3.16\sclone\settings\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAF9E4C-79CB-4241-A594-6D3AB06EE8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747439E5-A174-4B16-891E-0D859C8975F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -773,21 +773,21 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" customWidth="1"/>
-    <col min="3" max="3" width="53.36328125" customWidth="1"/>
-    <col min="4" max="4" width="17.36328125" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" customWidth="1"/>
-    <col min="7" max="7" width="23.6328125" customWidth="1"/>
-    <col min="8" max="8" width="25.26953125" customWidth="1"/>
-    <col min="9" max="9" width="23.26953125" customWidth="1"/>
-    <col min="10" max="10" width="31.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="53.375" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="7" max="7" width="23.625" customWidth="1"/>
+    <col min="8" max="8" width="25.25" customWidth="1"/>
+    <col min="9" max="9" width="23.25" customWidth="1"/>
+    <col min="10" max="10" width="31.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -819,7 +819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="138" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="128.25" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -851,7 +851,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -883,7 +883,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A13" si="0">D4</f>
         <v>ski_basemagic</v>
@@ -917,7 +917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>ski_basephysics</v>
@@ -951,7 +951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>ski_reimu</v>
@@ -990,7 +990,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>ski_sanae</v>
@@ -1025,7 +1025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>ski_rumia</v>
@@ -1060,7 +1060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>ski_wriggle</v>
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>ski_alice</v>
@@ -1130,7 +1130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>ski_sekibanki</v>
@@ -1165,7 +1165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>ski_misumaru</v>
@@ -1200,7 +1200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>ski_sakuya</v>

--- a/settings/data/Skill.xlsx
+++ b/settings/data/Skill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectFiles\LOO\touhou_LOO-master\touhou_LOO-master\settings\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747439E5-A174-4B16-891E-0D859C8975F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA4BB15-2359-465D-BAD9-D746CDE6F9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -770,24 +770,24 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="53.375" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="15.25" customWidth="1"/>
-    <col min="7" max="7" width="23.625" customWidth="1"/>
-    <col min="8" max="8" width="25.25" customWidth="1"/>
-    <col min="9" max="9" width="23.25" customWidth="1"/>
-    <col min="10" max="10" width="31.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="53.36328125" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" customWidth="1"/>
+    <col min="7" max="7" width="23.6328125" customWidth="1"/>
+    <col min="8" max="8" width="25.26953125" customWidth="1"/>
+    <col min="9" max="9" width="23.26953125" customWidth="1"/>
+    <col min="10" max="10" width="31.26953125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -819,7 +819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="128.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="138" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -851,7 +851,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -883,7 +883,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A13" si="0">D4</f>
         <v>ski_basemagic</v>
@@ -917,7 +917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>ski_basephysics</v>
@@ -951,7 +951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>ski_reimu</v>
@@ -990,7 +990,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>ski_sanae</v>
@@ -1025,7 +1025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>ski_rumia</v>
@@ -1060,7 +1060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>ski_wriggle</v>
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>ski_alice</v>
@@ -1130,7 +1130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>ski_sekibanki</v>
@@ -1165,7 +1165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>ski_misumaru</v>
@@ -1200,7 +1200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>ski_sakuya</v>

--- a/settings/data/Skill.xlsx
+++ b/settings/data/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectFiles\LOO\touhou_LOO-master\touhou_LOO-master\settings\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA4BB15-2359-465D-BAD9-D746CDE6F9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED665CDF-6088-4467-B6B9-C8DBDEBC4596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -466,6 +466,9 @@
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="TID"/>
     </sheetNames>
@@ -770,7 +773,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="J13" sqref="I12:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/settings/data/Skill.xlsx
+++ b/settings/data/Skill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectFiles\LOO\touhou_LOO-master\touhou_LOO-master\settings\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747439E5-A174-4B16-891E-0D859C8975F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED665CDF-6088-4467-B6B9-C8DBDEBC4596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -466,6 +466,9 @@
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="TID"/>
     </sheetNames>
@@ -770,24 +773,24 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J13" sqref="I12:J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="53.375" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="15.25" customWidth="1"/>
-    <col min="7" max="7" width="23.625" customWidth="1"/>
-    <col min="8" max="8" width="25.25" customWidth="1"/>
-    <col min="9" max="9" width="23.25" customWidth="1"/>
-    <col min="10" max="10" width="31.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="53.36328125" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" customWidth="1"/>
+    <col min="7" max="7" width="23.6328125" customWidth="1"/>
+    <col min="8" max="8" width="25.26953125" customWidth="1"/>
+    <col min="9" max="9" width="23.26953125" customWidth="1"/>
+    <col min="10" max="10" width="31.26953125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -819,7 +822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="128.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="138" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -851,7 +854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -883,7 +886,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A13" si="0">D4</f>
         <v>ski_basemagic</v>
@@ -917,7 +920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>ski_basephysics</v>
@@ -951,7 +954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>ski_reimu</v>
@@ -990,7 +993,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>ski_sanae</v>
@@ -1025,7 +1028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>ski_rumia</v>
@@ -1060,7 +1063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>ski_wriggle</v>
@@ -1095,7 +1098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>ski_alice</v>
@@ -1130,7 +1133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>ski_sekibanki</v>
@@ -1165,7 +1168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>ski_misumaru</v>
@@ -1200,7 +1203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>ski_sakuya</v>
